--- a/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
+++ b/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -914,7 +914,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">

--- a/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
+++ b/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.387</t>
+          <t>0.3870</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>0.4300</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.4300</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.01000</t>
+          <t>0.74000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1373,10 +1373,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H27" t="n">
         <v>600</v>
       </c>
@@ -1394,40 +1398,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>44214.45069444444</v>
+        <v>44214.49498842593</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.74000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Science - Periphyton, SOE Reporting - Rivers</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+          <t>3.000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>600</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>7.470</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1437,24 +1429,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44214.49498842593</v>
+        <v>44216</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>0.558</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>mg/m2</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>200</v>
       </c>
@@ -1468,7 +1456,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1476,7 +1464,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.558</t>
+          <t>117.14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1495,7 +1483,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1503,7 +1491,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>117.14</t>
+          <t>6.443</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1522,20 +1510,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44216</v>
+        <v>44242.50320601852</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.443</t>
+          <t>2.650</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
       <c r="H32" t="n">
         <v>200</v>
       </c>
@@ -1553,11 +1545,11 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44242.50320601852</v>
+        <v>44270.46991898148</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.650</t>
+          <t>4.450</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1584,11 +1576,11 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44270.46991898148</v>
+        <v>44305.46759259259</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.450</t>
+          <t>31.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1615,11 +1607,11 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44305.46759259259</v>
+        <v>44326.50383101852</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>31.000</t>
+          <t>8.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1646,11 +1638,11 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44326.50383101852</v>
+        <v>44361.45938657408</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8.000</t>
+          <t>4.050</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1673,28 +1665,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44361.45938657408</v>
+        <v>44361.47986111111</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.050</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>200</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>7.950</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1704,7 +1708,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1712,7 +1716,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>3.200</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1720,14 +1724,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.200</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1763,12 +1763,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
         <v>600</v>
       </c>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.01000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1804,10 +1804,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H40" t="n">
         <v>600</v>
       </c>
@@ -1825,7 +1829,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1833,7 +1837,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10.750</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1841,14 +1845,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.750</t>
+          <t>7.950</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1887,7 +1887,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.950</t>
+          <t>0.1800</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1923,10 +1923,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -1946,7 +1950,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1954,7 +1958,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.1800</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1989,7 +1993,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1997,7 +2001,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.1860</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2007,7 +2011,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2016,7 +2020,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2040,7 +2044,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.186</t>
+          <t>0.2300</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2050,16 +2054,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>0.01200</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.2300</t>
+          <t>1.04000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2132,10 +2132,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H48" t="n">
         <v>600</v>
       </c>
@@ -2153,15 +2157,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44361.47986111111</v>
+        <v>44396.46180555555</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.01200</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2171,16 +2175,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H49" t="n">
         <v>600</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>7.950</t>
+          <t>7.860</t>
         </is>
       </c>
     </row>
@@ -2192,15 +2200,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44361.47986111111</v>
+        <v>44396.46180555555</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.04000</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2210,12 +2218,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2223,7 +2231,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>7.950</t>
+          <t>7.860</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2243,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2243,7 +2251,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.01600</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2253,14 +2261,10 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>600</v>
       </c>
@@ -2278,7 +2282,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2286,7 +2290,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>630</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2296,12 +2300,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2321,7 +2325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2329,7 +2333,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.01600</t>
+          <t>10.970</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2337,12 +2341,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H53" t="n">
         <v>600</v>
       </c>
@@ -2360,7 +2364,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2368,7 +2372,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>7.860</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2376,14 +2380,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.970</t>
+          <t>0.7060</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2419,10 +2419,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2442,7 +2446,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2450,7 +2454,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2458,10 +2462,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2481,7 +2489,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2489,7 +2497,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.7060</t>
+          <t>0.7210</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2499,7 +2507,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2508,7 +2516,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2524,7 +2532,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2532,7 +2540,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.7200</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2542,14 +2550,10 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
         <v>600</v>
       </c>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2575,7 +2579,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.06700</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2585,16 +2589,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>41.60000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2628,10 +2628,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H60" t="n">
         <v>600</v>
       </c>
@@ -2649,15 +2653,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44396.46180555555</v>
+        <v>44417.45277777778</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.7200</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2667,16 +2671,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H61" t="n">
         <v>600</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -2688,15 +2696,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44396.46180555555</v>
+        <v>44417.45277777778</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.06700</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2706,16 +2714,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H62" t="n">
         <v>600</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -2727,15 +2739,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44396.46180555555</v>
+        <v>44417.45277777778</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>41.60000</t>
+          <t>0.009000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2745,20 +2757,16 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
         <v>600</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7.860</t>
+          <t>7.480</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2778,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2778,7 +2786,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>330</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2788,12 +2796,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2813,7 +2821,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2821,7 +2829,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>11.900</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,14 +2837,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2856,7 +2860,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2864,7 +2868,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.009000</t>
+          <t>7.480</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2872,12 +2876,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H66" t="n">
         <v>600</v>
       </c>
@@ -2895,7 +2899,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2903,7 +2907,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0.6960</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2913,12 +2917,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2938,7 +2942,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2946,7 +2950,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11.900</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2954,10 +2958,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2977,7 +2985,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2985,7 +2993,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>0.7150</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2993,14 +3001,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3016,7 +3028,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3024,7 +3036,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6960</t>
+          <t>0.8900</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3034,14 +3046,10 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>600</v>
       </c>
@@ -3059,7 +3067,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3067,7 +3075,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.06200</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3077,14 +3085,10 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>600</v>
       </c>
@@ -3102,7 +3106,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>13.90000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3120,16 +3124,16 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3145,36 +3149,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>44417.45277777778</v>
+        <v>44452.50445601852</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>1.650</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
       <c r="H73" t="n">
-        <v>600</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>7.480</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3184,15 +3180,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44417.45277777778</v>
+        <v>44452.51041666666</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.8900</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3202,16 +3198,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H74" t="n">
         <v>600</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.550</t>
         </is>
       </c>
     </row>
@@ -3223,15 +3223,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44417.45277777778</v>
+        <v>44452.51041666666</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.06200</t>
+          <t>0.01100</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.550</t>
         </is>
       </c>
     </row>
@@ -3262,15 +3262,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44417.45277777778</v>
+        <v>44452.51041666666</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13.90000</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>7.480</t>
+          <t>7.550</t>
         </is>
       </c>
     </row>
@@ -3305,28 +3305,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44452.50445601852</v>
+        <v>44452.51041666666</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.650</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>10.850</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>200</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7.550</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3336,7 +3344,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3344,7 +3352,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>7.550</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3352,14 +3360,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3379,7 +3383,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3387,7 +3391,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.01100</t>
+          <t>0.6870</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3397,10 +3401,14 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H79" t="n">
         <v>600</v>
       </c>
@@ -3418,7 +3426,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3426,7 +3434,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3436,12 +3444,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3461,7 +3469,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3469,7 +3477,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10.850</t>
+          <t>0.6930</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3477,14 +3485,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3500,7 +3512,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3508,7 +3520,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>0.7600</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3516,12 +3528,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
         <v>600</v>
       </c>
@@ -3539,7 +3551,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3547,7 +3559,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.6870</t>
+          <t>0.01700</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3557,14 +3569,10 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>600</v>
       </c>
@@ -3582,7 +3590,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3590,7 +3598,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>1.26000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3600,12 +3608,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3625,15 +3633,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44452.51041666666</v>
+        <v>44480.46944444445</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.693</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3643,20 +3651,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.730</t>
         </is>
       </c>
     </row>
@@ -3668,15 +3676,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44452.51041666666</v>
+        <v>44480.46944444445</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>0.01100</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3686,7 +3694,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3695,7 +3703,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.730</t>
         </is>
       </c>
     </row>
@@ -3707,15 +3715,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44452.51041666666</v>
+        <v>44480.46944444445</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.7600</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3725,16 +3733,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H87" t="n">
         <v>600</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.730</t>
         </is>
       </c>
     </row>
@@ -3746,15 +3758,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44452.51041666666</v>
+        <v>44480.46944444445</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.01700</t>
+          <t>10.330</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3762,18 +3774,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H88" t="n">
         <v>600</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.730</t>
         </is>
       </c>
     </row>
@@ -3785,15 +3797,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44452.51041666666</v>
+        <v>44480.46944444445</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.26000</t>
+          <t>7.730</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3801,14 +3813,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3816,7 +3824,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>7.550</t>
+          <t>7.730</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3836,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3836,7 +3844,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>1.3000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3846,12 +3854,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3871,7 +3879,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3879,7 +3887,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.01100</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3889,10 +3897,14 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H91" t="n">
         <v>600</v>
       </c>
@@ -3910,7 +3922,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3918,7 +3930,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1.3060</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3928,16 +3940,16 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3953,7 +3965,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3961,7 +3973,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10.330</t>
+          <t>1.370</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3969,12 +3981,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
         <v>600</v>
       </c>
@@ -3992,7 +4004,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4000,7 +4012,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4008,12 +4020,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>600</v>
       </c>
@@ -4031,7 +4043,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4039,7 +4051,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1.3000</t>
+          <t>1.18000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4049,12 +4061,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4074,40 +4086,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44480.49907407408</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+          <t>0.405</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>600</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>7.730</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4117,15 +4117,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.306</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4135,20 +4135,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>7.800</t>
         </is>
       </c>
     </row>
@@ -4160,15 +4160,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>0.01000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>7.800</t>
         </is>
       </c>
     </row>
@@ -4199,15 +4199,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.370</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4217,16 +4217,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H99" t="n">
         <v>600</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>7.800</t>
         </is>
       </c>
     </row>
@@ -4238,15 +4242,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>10.230</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4254,18 +4258,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H100" t="n">
         <v>600</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>7.800</t>
         </is>
       </c>
     </row>
@@ -4277,15 +4281,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44480.46944444445</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.18000</t>
+          <t>7.800</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4293,14 +4297,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>7.730</t>
+          <t>7.800</t>
         </is>
       </c>
     </row>
@@ -4320,28 +4320,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44480.49907407408</v>
+        <v>44508.43541666667</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.405</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>200</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>7.800</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4351,7 +4363,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4359,7 +4371,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4369,12 +4381,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4394,7 +4406,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4402,7 +4414,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.01000</t>
+          <t>0.2950</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4412,12 +4424,16 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H104" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4433,7 +4449,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4441,7 +4457,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0.3400</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4451,14 +4467,10 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
         <v>600</v>
       </c>
@@ -4476,7 +4488,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4484,7 +4496,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10.230</t>
+          <t>0.02000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4492,12 +4504,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
         <v>600</v>
       </c>
@@ -4515,7 +4527,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4523,7 +4535,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>5.15000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4531,10 +4543,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4554,40 +4570,28 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44508.4659375</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.2750</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+          <t>0.550</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>600</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>7.800</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4597,15 +4601,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4615,12 +4619,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4628,7 +4632,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4640,15 +4644,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.295</t>
+          <t>&gt;1.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4656,22 +4660,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4683,15 +4683,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4722,15 +4722,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.3400</t>
+          <t>593</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4740,16 +4740,20 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H112" t="n">
         <v>600</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4761,15 +4765,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.02000</t>
+          <t>9.790</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4777,18 +4781,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H113" t="n">
         <v>600</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4800,15 +4804,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>44508.43541666667</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5.15000</t>
+          <t>7.350</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4816,14 +4820,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>7.800</t>
+          <t>7.350</t>
         </is>
       </c>
     </row>
@@ -4843,28 +4843,40 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>44508.4659375</v>
+        <v>44536.49722222222</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.550</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>200</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>7.350</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4874,7 +4886,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4882,7 +4894,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4892,12 +4904,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -4917,7 +4929,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4925,7 +4937,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>&gt;1.000</t>
+          <t>0.2620</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4933,14 +4945,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -4956,7 +4972,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4964,7 +4980,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>0.3000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4974,7 +4990,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4995,7 +5011,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5003,7 +5019,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5013,14 +5029,10 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
         <v>600</v>
       </c>
@@ -5038,7 +5050,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5046,7 +5058,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.790</t>
+          <t>0.46000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5054,10 +5066,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -5077,36 +5093,28 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44536.52633101852</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>7.350</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
+          <t>4.050</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>600</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>7.350</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5116,15 +5124,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.2490</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5134,12 +5142,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -5147,7 +5155,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5159,15 +5167,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>5.500</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5175,14 +5183,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -5190,7 +5194,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5202,15 +5206,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.262</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5220,20 +5224,16 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5245,15 +5245,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>913</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5263,16 +5263,20 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H125" t="n">
         <v>600</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5284,15 +5288,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.3000</t>
+          <t>9.180</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5300,18 +5304,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H126" t="n">
         <v>600</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5323,15 +5327,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>7.970</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5339,18 +5343,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H127" t="n">
         <v>600</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5362,15 +5366,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>44536.49722222222</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.46000</t>
+          <t>0.4300</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5380,12 +5384,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -5393,7 +5397,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>7.350</t>
+          <t>7.970</t>
         </is>
       </c>
     </row>
@@ -5405,28 +5409,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>44536.52633101852</v>
+        <v>44586.44166666667</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4.050</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>200</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>7.970</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5436,7 +5452,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5444,7 +5460,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.4400</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5454,16 +5470,16 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -5479,7 +5495,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5487,7 +5503,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>5.500</t>
+          <t>0.5100</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5495,12 +5511,12 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
         <v>600</v>
       </c>
@@ -5518,7 +5534,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5526,7 +5542,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>0.01500</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5536,7 +5552,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -5557,7 +5573,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5565,7 +5581,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>0.39000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5575,12 +5591,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -5600,36 +5616,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44586.47300925926</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>9.180</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
+          <t>5.500</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>600</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>7.970</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5639,36 +5647,24 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44588</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>7.970</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
+          <t>0.580</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>600</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>7.970</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5678,40 +5674,24 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44588</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.4300</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>117.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>600</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>7.970</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5721,40 +5701,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44588</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>5.860</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>600</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>7.970</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5764,15 +5728,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44606.45</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.440</t>
+          <t>&lt;0.0010</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5782,20 +5746,20 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>7.970</t>
+          <t>7.750</t>
         </is>
       </c>
     </row>
@@ -5807,15 +5771,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44606.45</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5825,16 +5789,20 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H139" t="n">
         <v>600</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>7.970</t>
+          <t>7.750</t>
         </is>
       </c>
     </row>
@@ -5846,15 +5814,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44606.45</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5100</t>
+          <t>0.01500</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5864,7 +5832,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -5873,7 +5841,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>7.970</t>
+          <t>7.750</t>
         </is>
       </c>
     </row>
@@ -5885,15 +5853,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44606.45</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.01500</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5903,16 +5871,20 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H141" t="n">
         <v>600</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>7.970</t>
+          <t>7.750</t>
         </is>
       </c>
     </row>
@@ -5924,15 +5896,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>44586.44166666667</v>
+        <v>44606.45</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.39000</t>
+          <t>10.240</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5940,14 +5912,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -5955,7 +5923,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>7.970</t>
+          <t>7.750</t>
         </is>
       </c>
     </row>
@@ -5967,28 +5935,36 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>44586.47300925926</v>
+        <v>44606.45</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5.500</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>7.750</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>200</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5998,24 +5974,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>44588</v>
+        <v>44606.45</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.580</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H144" t="n">
-        <v>200</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6025,24 +6017,40 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>44588</v>
+        <v>44606.45</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>117.00</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H145" t="n">
-        <v>200</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6052,24 +6060,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>44588</v>
+        <v>44606.45</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>5.860</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H146" t="n">
-        <v>200</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>7.750</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6079,7 +6103,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6087,7 +6111,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>&lt;0.0010</t>
+          <t>0.8800</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6097,14 +6121,10 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
         <v>600</v>
       </c>
@@ -6122,7 +6142,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6130,7 +6150,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6140,14 +6160,10 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
         <v>600</v>
       </c>
@@ -6165,7 +6181,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6173,7 +6189,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.01500</t>
+          <t>195.00000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6183,12 +6199,16 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -6204,15 +6224,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6222,12 +6242,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -6235,7 +6255,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6247,15 +6267,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10.240</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6263,18 +6283,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
         <v>600</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6286,15 +6306,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>643</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6302,10 +6322,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -6313,7 +6337,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6325,15 +6349,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.9820</t>
+          <t>9.910</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6341,14 +6365,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -6356,7 +6376,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6368,15 +6388,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6384,14 +6404,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -6399,7 +6415,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6411,15 +6427,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.990</t>
+          <t>0.8340</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6429,7 +6445,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6438,11 +6454,11 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6454,15 +6470,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6472,16 +6488,20 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H156" t="n">
         <v>600</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6493,15 +6513,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.8800</t>
+          <t>0.8470</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6511,16 +6531,20 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H157" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6532,15 +6556,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.1050</t>
+          <t>0.9000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6550,7 +6574,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -6559,7 +6583,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6571,15 +6595,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>44606.45</v>
+        <v>44634.45902777778</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>195.00000</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6589,20 +6613,16 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
         <v>500</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>7.750</t>
+          <t>7.500</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6634,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6622,7 +6642,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.55000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6632,12 +6652,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -6657,36 +6677,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44634.49168981481</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.01400</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>2.900</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
       <c r="H161" t="n">
-        <v>600</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>7.500</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6696,40 +6708,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.48936342593</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>643</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>600</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>7.500</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6739,15 +6739,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>9.910</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6755,7 +6755,11 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -6766,7 +6770,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6778,15 +6782,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>0.330</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6797,7 +6801,7 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -6805,7 +6809,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6817,15 +6821,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0.8340</t>
+          <t>0.01400</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6835,20 +6839,16 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
         <v>600</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6860,15 +6860,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6878,12 +6878,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6903,15 +6903,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.847</t>
+          <t>10.450</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6919,22 +6919,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6946,15 +6942,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>&lt;1.000</t>
+          <t>6.920</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6962,18 +6958,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H168" t="n">
         <v>600</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -6985,15 +6981,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>0.4930</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7003,16 +6999,20 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H169" t="n">
         <v>600</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -7024,15 +7024,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -7042,16 +7042,20 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H170" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -7063,15 +7067,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>44634.45902777778</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.55000</t>
+          <t>0.4930</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7081,20 +7085,20 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>6.920</t>
         </is>
       </c>
     </row>
@@ -7106,28 +7110,36 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>44634.49168981481</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2.900</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>mg/m2</t>
-        </is>
-      </c>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>200</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>6.920</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7137,28 +7149,36 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>44677.48936342593</v>
+        <v>44677.49444444444</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.500</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>mg/m2</t>
-        </is>
-      </c>
+          <t>0.02900</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>200</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>6.920</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7168,7 +7188,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7176,7 +7196,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>11.80000</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7186,12 +7206,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -7211,36 +7231,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.330</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
+          <t>8.500</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>600</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>6.920</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7250,15 +7262,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.01400</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7268,16 +7280,20 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H176" t="n">
         <v>600</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7289,15 +7305,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>3.200</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7305,14 +7321,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -7320,7 +7332,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7332,15 +7344,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>10.450</t>
+          <t>0.01300</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7348,18 +7360,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
         <v>600</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7371,15 +7383,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>268</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7387,10 +7399,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -7398,7 +7414,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7410,15 +7426,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.4930</t>
+          <t>10.290</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7426,14 +7442,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -7441,7 +7453,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7453,15 +7465,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>7.710</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7469,14 +7481,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -7484,7 +7492,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7496,15 +7504,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.4400</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7514,7 +7522,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7523,11 +7531,11 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7539,15 +7547,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7557,16 +7565,20 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H183" t="n">
         <v>600</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7578,15 +7590,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.5200</t>
+          <t>0.4470</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7596,16 +7608,20 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H184" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7617,15 +7633,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.02900</t>
+          <t>0.4900</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7635,7 +7651,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -7644,7 +7660,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7656,15 +7672,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>44677.49444444444</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>11.80000</t>
+          <t>0.02300</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7674,20 +7690,16 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
         <v>600</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>6.920</t>
+          <t>7.710</t>
         </is>
       </c>
     </row>
@@ -7699,28 +7711,40 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
-        <v>44690</v>
+        <v>44690.49930555555</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>8.500</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+          <t>0.86000</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>200</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>7.710</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7734,11 +7758,11 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7761,7 +7785,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7773,15 +7797,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>3.200</t>
+          <t>0.02200</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7789,18 +7813,18 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
         <v>600</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7812,15 +7836,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.01300</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7830,16 +7854,20 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H190" t="n">
         <v>600</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7851,15 +7879,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>10.960</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7867,14 +7895,10 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -7882,7 +7906,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7894,15 +7918,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>10.290</t>
+          <t>7.570</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7913,7 +7937,7 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -7921,7 +7945,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7933,15 +7957,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>0.9550</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7949,10 +7973,14 @@
           <t>Science - Periphyton</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -7960,7 +7988,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -7972,15 +8000,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.4400</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8003,7 +8031,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -8015,15 +8043,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.9810</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8033,7 +8061,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8042,11 +8070,11 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -8058,15 +8086,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.447</t>
+          <t>1.060</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8076,20 +8104,16 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -8101,15 +8125,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.5270</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8119,16 +8143,16 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -8140,15 +8164,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44725.43472222222</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.4900</t>
+          <t>193.00000</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8158,16 +8182,20 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H198" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.570</t>
         </is>
       </c>
     </row>
@@ -8179,36 +8207,28 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44753.00046296296</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.02300</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr"/>
+          <t>&lt;0.160</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
       <c r="H199" t="n">
-        <v>600</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>7.710</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8218,15 +8238,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>44690.49930555555</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.86000</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8236,12 +8256,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -8249,7 +8269,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>7.710</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8261,15 +8281,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.320</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8279,12 +8299,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -8292,7 +8312,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8308,11 +8328,11 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.02200</t>
+          <t>0.01500</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8331,7 +8351,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8347,11 +8367,11 @@
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8374,7 +8394,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8390,11 +8410,11 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>10.960</t>
+          <t>11.530</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8413,7 +8433,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8429,11 +8449,11 @@
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8452,7 +8472,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8468,11 +8488,11 @@
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.9550</t>
+          <t>1.2700</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8495,7 +8515,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8511,11 +8531,11 @@
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8538,7 +8558,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8554,11 +8574,11 @@
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.981</t>
+          <t>1.2780</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8581,7 +8601,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8593,15 +8613,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>618.0</t>
+          <t>1.310</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8611,16 +8631,16 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8632,15 +8652,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1.060</t>
+          <t>0.04100</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8650,7 +8670,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -8659,7 +8679,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8671,15 +8691,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
-        <v>44725.43472222222</v>
+        <v>44753.45833333334</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.5270</t>
+          <t>24.40000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -8689,16 +8709,20 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H211" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>7.570</t>
+          <t>7.320</t>
         </is>
       </c>
     </row>
@@ -8710,40 +8734,601 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>44781.00046296296</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>&lt;0.160</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>200</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>600</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2.280</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>600</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.01300</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>600</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>600</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>11.110</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>600</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>600</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1.5000</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>600</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>600</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1.5040</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>300</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1.530</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>600</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01800</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>600</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>Turbidity</t>
         </is>
       </c>
-      <c r="C212" s="2" t="n">
-        <v>44725.43472222222</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>193.00000</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Science - Periphyton</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="C224" s="2" t="n">
+        <v>44781.46805555555</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1.40000</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Science - Periphyton</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
         <is>
           <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>NTU</t>
         </is>
       </c>
-      <c r="H212" t="n">
-        <v>500</v>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>7.570</t>
-        </is>
-      </c>
+      <c r="H224" t="n">
+        <v>600</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>7.370</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.570</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>200</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>113.33</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>200</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Tamaki at Hartridges</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>7.514</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>200</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
+++ b/data/Rivers/TamakiatHartridges_4cfc44fd3d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="236">
   <si>
     <t>site name</t>
   </si>
@@ -139,7 +139,7 @@
     <t>0.007000</t>
   </si>
   <si>
-    <t>990</t>
+    <t>990.0</t>
   </si>
   <si>
     <t>9.540</t>
@@ -199,7 +199,7 @@
     <t>3.200</t>
   </si>
   <si>
-    <t>200</t>
+    <t>200.0</t>
   </si>
   <si>
     <t>10.750</t>
@@ -232,7 +232,7 @@
     <t>0.01600</t>
   </si>
   <si>
-    <t>630</t>
+    <t>630.0</t>
   </si>
   <si>
     <t>10.970</t>
@@ -265,7 +265,7 @@
     <t>0.009000</t>
   </si>
   <si>
-    <t>330</t>
+    <t>330.0</t>
   </si>
   <si>
     <t>11.900</t>
@@ -301,7 +301,7 @@
     <t>0.01100</t>
   </si>
   <si>
-    <t>54</t>
+    <t>54.0</t>
   </si>
   <si>
     <t>10.850</t>
@@ -325,7 +325,7 @@
     <t>1.26000</t>
   </si>
   <si>
-    <t>75</t>
+    <t>75.0</t>
   </si>
   <si>
     <t>10.330</t>
@@ -352,7 +352,7 @@
     <t>0.405</t>
   </si>
   <si>
-    <t>97</t>
+    <t>97.0</t>
   </si>
   <si>
     <t>10.230</t>
@@ -388,7 +388,7 @@
     <t>0.01300</t>
   </si>
   <si>
-    <t>593</t>
+    <t>593.2</t>
   </si>
   <si>
     <t>9.790</t>
@@ -418,7 +418,7 @@
     <t>5.500</t>
   </si>
   <si>
-    <t>913</t>
+    <t>913.0</t>
   </si>
   <si>
     <t>9.180</t>
@@ -454,7 +454,7 @@
     <t>0.040</t>
   </si>
   <si>
-    <t>480</t>
+    <t>480.0</t>
   </si>
   <si>
     <t>10.240</t>
@@ -481,7 +481,7 @@
     <t>195.00000</t>
   </si>
   <si>
-    <t>643</t>
+    <t>643.0</t>
   </si>
   <si>
     <t>9.910</t>
@@ -511,7 +511,7 @@
     <t>0.330</t>
   </si>
   <si>
-    <t>177</t>
+    <t>177.0</t>
   </si>
   <si>
     <t>10.450</t>
@@ -535,7 +535,7 @@
     <t>8.500</t>
   </si>
   <si>
-    <t>268</t>
+    <t>268.0</t>
   </si>
   <si>
     <t>10.290</t>
@@ -562,7 +562,7 @@
     <t>0.02200</t>
   </si>
   <si>
-    <t>2318</t>
+    <t>2318.0</t>
   </si>
   <si>
     <t>10.960</t>
@@ -595,7 +595,7 @@
     <t>0.320</t>
   </si>
   <si>
-    <t>180</t>
+    <t>180.0</t>
   </si>
   <si>
     <t>11.530</t>
@@ -628,7 +628,7 @@
     <t>2.280</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>11.110</t>
@@ -659,6 +659,15 @@
   </si>
   <si>
     <t>7.514</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>115.56</t>
+  </si>
+  <si>
+    <t>5.533</t>
   </si>
   <si>
     <t>Science - Periphyton, SOE Reporting - Rivers</t>
@@ -1074,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1143,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1163,7 +1172,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1234,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1254,7 +1263,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1274,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1294,7 +1303,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1314,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1334,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1354,7 +1363,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1374,7 +1383,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1394,7 +1403,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1414,13 +1423,13 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1443,10 +1452,10 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1469,13 +1478,13 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1498,10 +1507,10 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1524,7 +1533,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -1550,13 +1559,13 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1579,13 +1588,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1608,13 +1617,13 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H24">
         <v>300</v>
@@ -1637,10 +1646,10 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1663,10 +1672,10 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1689,13 +1698,13 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1718,7 +1727,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1789,7 +1798,7 @@
         <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1809,7 +1818,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1829,7 +1838,7 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -1849,7 +1858,7 @@
         <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1869,7 +1878,7 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1889,13 +1898,13 @@
         <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1918,10 +1927,10 @@
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1944,10 +1953,10 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1970,13 +1979,13 @@
         <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1999,10 +2008,10 @@
         <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2025,7 +2034,7 @@
         <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
         <v>8</v>
@@ -2051,13 +2060,13 @@
         <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2080,13 +2089,13 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2109,13 +2118,13 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H45">
         <v>300</v>
@@ -2138,10 +2147,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2164,10 +2173,10 @@
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2190,13 +2199,13 @@
         <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2219,13 +2228,13 @@
         <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2248,13 +2257,13 @@
         <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2277,10 +2286,10 @@
         <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2303,13 +2312,13 @@
         <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G52" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2332,10 +2341,10 @@
         <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G53" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2358,7 +2367,7 @@
         <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
         <v>8</v>
@@ -2384,13 +2393,13 @@
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G55" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2413,13 +2422,13 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2442,13 +2451,13 @@
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H57">
         <v>300</v>
@@ -2471,10 +2480,10 @@
         <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2497,10 +2506,10 @@
         <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2523,13 +2532,13 @@
         <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2552,13 +2561,13 @@
         <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2581,13 +2590,13 @@
         <v>81</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2610,10 +2619,10 @@
         <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2636,13 +2645,13 @@
         <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2665,10 +2674,10 @@
         <v>84</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G65" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2691,7 +2700,7 @@
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G66" t="s">
         <v>8</v>
@@ -2717,13 +2726,13 @@
         <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G67" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2746,13 +2755,13 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G68" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2775,13 +2784,13 @@
         <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G69" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H69">
         <v>300</v>
@@ -2804,10 +2813,10 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2830,10 +2839,10 @@
         <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2856,13 +2865,13 @@
         <v>91</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G72" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2885,7 +2894,7 @@
         <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H73">
         <v>200</v>
@@ -2905,13 +2914,13 @@
         <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G74" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2934,10 +2943,10 @@
         <v>94</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2960,13 +2969,13 @@
         <v>95</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2989,10 +2998,10 @@
         <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3015,7 +3024,7 @@
         <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
         <v>8</v>
@@ -3041,13 +3050,13 @@
         <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G79" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3070,13 +3079,13 @@
         <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G80" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3099,13 +3108,13 @@
         <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G81" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H81">
         <v>300</v>
@@ -3128,10 +3137,10 @@
         <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3154,10 +3163,10 @@
         <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3180,13 +3189,13 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G84" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3209,13 +3218,13 @@
         <v>59</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F85" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3238,10 +3247,10 @@
         <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3264,13 +3273,13 @@
         <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3293,10 +3302,10 @@
         <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3319,7 +3328,7 @@
         <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3345,13 +3354,13 @@
         <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F90" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3374,13 +3383,13 @@
         <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3403,13 +3412,13 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H92">
         <v>300</v>
@@ -3432,10 +3441,10 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3458,10 +3467,10 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3484,13 +3493,13 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3513,7 +3522,7 @@
         <v>111</v>
       </c>
       <c r="G96" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H96">
         <v>200</v>
@@ -3533,13 +3542,13 @@
         <v>80</v>
       </c>
       <c r="E97" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F97" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3562,10 +3571,10 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3588,13 +3597,13 @@
         <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3617,10 +3626,10 @@
         <v>113</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3643,7 +3652,7 @@
         <v>114</v>
       </c>
       <c r="E101" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
@@ -3669,13 +3678,13 @@
         <v>115</v>
       </c>
       <c r="E102" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G102" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3698,13 +3707,13 @@
         <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3727,13 +3736,13 @@
         <v>116</v>
       </c>
       <c r="E104" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H104">
         <v>300</v>
@@ -3756,10 +3765,10 @@
         <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3782,10 +3791,10 @@
         <v>118</v>
       </c>
       <c r="E106" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3808,13 +3817,13 @@
         <v>119</v>
       </c>
       <c r="E107" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F107" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G107" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3837,7 +3846,7 @@
         <v>120</v>
       </c>
       <c r="G108" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H108">
         <v>200</v>
@@ -3857,13 +3866,13 @@
         <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F109" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G109" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3886,10 +3895,10 @@
         <v>122</v>
       </c>
       <c r="E110" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G110" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3912,10 +3921,10 @@
         <v>123</v>
       </c>
       <c r="E111" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3938,13 +3947,13 @@
         <v>124</v>
       </c>
       <c r="E112" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G112" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3967,10 +3976,10 @@
         <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G113" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3993,7 +4002,7 @@
         <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G114" t="s">
         <v>8</v>
@@ -4019,13 +4028,13 @@
         <v>127</v>
       </c>
       <c r="E115" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G115" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -4048,13 +4057,13 @@
         <v>45</v>
       </c>
       <c r="E116" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G116" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4077,13 +4086,13 @@
         <v>128</v>
       </c>
       <c r="E117" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G117" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H117">
         <v>300</v>
@@ -4106,10 +4115,10 @@
         <v>129</v>
       </c>
       <c r="E118" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4132,10 +4141,10 @@
         <v>130</v>
       </c>
       <c r="E119" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4158,13 +4167,13 @@
         <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G120" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4187,7 +4196,7 @@
         <v>58</v>
       </c>
       <c r="G121" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H121">
         <v>200</v>
@@ -4207,13 +4216,13 @@
         <v>132</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G122" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4236,10 +4245,10 @@
         <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G123" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4262,10 +4271,10 @@
         <v>109</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4288,13 +4297,13 @@
         <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4317,10 +4326,10 @@
         <v>135</v>
       </c>
       <c r="E126" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G126" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4343,7 +4352,7 @@
         <v>136</v>
       </c>
       <c r="E127" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4369,13 +4378,13 @@
         <v>47</v>
       </c>
       <c r="E128" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G128" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4398,13 +4407,13 @@
         <v>45</v>
       </c>
       <c r="E129" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F129" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G129" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4427,13 +4436,13 @@
         <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F130" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G130" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H130">
         <v>300</v>
@@ -4456,10 +4465,10 @@
         <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4482,10 +4491,10 @@
         <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F132" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4508,13 +4517,13 @@
         <v>140</v>
       </c>
       <c r="E133" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F133" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G133" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4537,7 +4546,7 @@
         <v>133</v>
       </c>
       <c r="G134" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H134">
         <v>200</v>
@@ -4608,13 +4617,13 @@
         <v>144</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F138" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G138" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4637,13 +4646,13 @@
         <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F139" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4666,10 +4675,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4692,13 +4701,13 @@
         <v>146</v>
       </c>
       <c r="E141" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F141" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G141" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4721,10 +4730,10 @@
         <v>147</v>
       </c>
       <c r="E142" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G142" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4747,7 +4756,7 @@
         <v>148</v>
       </c>
       <c r="E143" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G143" t="s">
         <v>8</v>
@@ -4773,13 +4782,13 @@
         <v>149</v>
       </c>
       <c r="E144" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F144" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G144" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4802,13 +4811,13 @@
         <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F145" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G145" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4831,13 +4840,13 @@
         <v>151</v>
       </c>
       <c r="E146" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F146" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G146" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H146">
         <v>300</v>
@@ -4860,10 +4869,10 @@
         <v>152</v>
       </c>
       <c r="E147" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F147" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4886,10 +4895,10 @@
         <v>153</v>
       </c>
       <c r="E148" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F148" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4912,13 +4921,13 @@
         <v>154</v>
       </c>
       <c r="E149" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F149" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G149" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H149">
         <v>500</v>
@@ -4941,13 +4950,13 @@
         <v>39</v>
       </c>
       <c r="E150" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G150" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4970,10 +4979,10 @@
         <v>109</v>
       </c>
       <c r="E151" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4996,13 +5005,13 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F152" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G152" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -5025,10 +5034,10 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G153" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5051,7 +5060,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -5077,13 +5086,13 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G155" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5106,13 +5115,13 @@
         <v>45</v>
       </c>
       <c r="E156" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F156" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G156" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5135,13 +5144,13 @@
         <v>159</v>
       </c>
       <c r="E157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F157" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G157" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H157">
         <v>300</v>
@@ -5164,10 +5173,10 @@
         <v>160</v>
       </c>
       <c r="E158" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F158" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5190,10 +5199,10 @@
         <v>123</v>
       </c>
       <c r="E159" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F159" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H159">
         <v>500</v>
@@ -5216,13 +5225,13 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F160" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G160" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5245,7 +5254,7 @@
         <v>162</v>
       </c>
       <c r="G161" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H161">
         <v>200</v>
@@ -5265,7 +5274,7 @@
         <v>163</v>
       </c>
       <c r="G162" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H162">
         <v>200</v>
@@ -5285,13 +5294,13 @@
         <v>93</v>
       </c>
       <c r="E163" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F163" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G163" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5314,10 +5323,10 @@
         <v>164</v>
       </c>
       <c r="E164" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G164" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5340,10 +5349,10 @@
         <v>109</v>
       </c>
       <c r="E165" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F165" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5366,13 +5375,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F166" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G166" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5395,10 +5404,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G167" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5421,7 +5430,7 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G168" t="s">
         <v>8</v>
@@ -5447,13 +5456,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F169" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G169" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5476,13 +5485,13 @@
         <v>45</v>
       </c>
       <c r="E170" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F170" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G170" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5505,13 +5514,13 @@
         <v>168</v>
       </c>
       <c r="E171" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F171" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G171" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H171">
         <v>300</v>
@@ -5534,10 +5543,10 @@
         <v>169</v>
       </c>
       <c r="E172" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F172" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5560,10 +5569,10 @@
         <v>170</v>
       </c>
       <c r="E173" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F173" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5586,13 +5595,13 @@
         <v>171</v>
       </c>
       <c r="E174" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F174" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G174" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5615,7 +5624,7 @@
         <v>172</v>
       </c>
       <c r="G175" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H175">
         <v>200</v>
@@ -5635,13 +5644,13 @@
         <v>39</v>
       </c>
       <c r="E176" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F176" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G176" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5664,10 +5673,10 @@
         <v>60</v>
       </c>
       <c r="E177" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5690,10 +5699,10 @@
         <v>123</v>
       </c>
       <c r="E178" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F178" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5716,13 +5725,13 @@
         <v>173</v>
       </c>
       <c r="E179" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F179" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G179" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5745,10 +5754,10 @@
         <v>174</v>
       </c>
       <c r="E180" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G180" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5771,7 +5780,7 @@
         <v>175</v>
       </c>
       <c r="E181" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G181" t="s">
         <v>8</v>
@@ -5797,13 +5806,13 @@
         <v>137</v>
       </c>
       <c r="E182" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F182" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G182" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5826,13 +5835,13 @@
         <v>45</v>
       </c>
       <c r="E183" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F183" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G183" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5855,13 +5864,13 @@
         <v>176</v>
       </c>
       <c r="E184" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F184" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G184" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H184">
         <v>300</v>
@@ -5884,10 +5893,10 @@
         <v>177</v>
       </c>
       <c r="E185" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F185" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5910,10 +5919,10 @@
         <v>178</v>
       </c>
       <c r="E186" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F186" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5936,13 +5945,13 @@
         <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F187" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G187" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5965,13 +5974,13 @@
         <v>180</v>
       </c>
       <c r="E188" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F188" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G188" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5994,10 +6003,10 @@
         <v>181</v>
       </c>
       <c r="E189" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F189" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -6020,13 +6029,13 @@
         <v>182</v>
       </c>
       <c r="E190" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F190" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G190" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -6049,10 +6058,10 @@
         <v>183</v>
       </c>
       <c r="E191" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G191" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6075,7 +6084,7 @@
         <v>184</v>
       </c>
       <c r="E192" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G192" t="s">
         <v>8</v>
@@ -6101,13 +6110,13 @@
         <v>185</v>
       </c>
       <c r="E193" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F193" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G193" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6130,13 +6139,13 @@
         <v>45</v>
       </c>
       <c r="E194" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G194" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6159,13 +6168,13 @@
         <v>186</v>
       </c>
       <c r="E195" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F195" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G195" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H195">
         <v>300</v>
@@ -6188,10 +6197,10 @@
         <v>187</v>
       </c>
       <c r="E196" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F196" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6214,10 +6223,10 @@
         <v>188</v>
       </c>
       <c r="E197" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F197" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H197">
         <v>500</v>
@@ -6240,13 +6249,13 @@
         <v>189</v>
       </c>
       <c r="E198" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F198" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G198" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H198">
         <v>500</v>
@@ -6269,7 +6278,7 @@
         <v>190</v>
       </c>
       <c r="G199" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H199">
         <v>200</v>
@@ -6289,13 +6298,13 @@
         <v>191</v>
       </c>
       <c r="E200" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F200" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G200" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6318,13 +6327,13 @@
         <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F201" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G201" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6347,10 +6356,10 @@
         <v>139</v>
       </c>
       <c r="E202" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F202" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6373,13 +6382,13 @@
         <v>193</v>
       </c>
       <c r="E203" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F203" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G203" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6402,10 +6411,10 @@
         <v>194</v>
       </c>
       <c r="E204" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G204" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6428,7 +6437,7 @@
         <v>195</v>
       </c>
       <c r="E205" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G205" t="s">
         <v>8</v>
@@ -6454,13 +6463,13 @@
         <v>196</v>
       </c>
       <c r="E206" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F206" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G206" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6483,13 +6492,13 @@
         <v>197</v>
       </c>
       <c r="E207" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G207" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6512,13 +6521,13 @@
         <v>198</v>
       </c>
       <c r="E208" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F208" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G208" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H208">
         <v>300</v>
@@ -6541,10 +6550,10 @@
         <v>199</v>
       </c>
       <c r="E209" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F209" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6567,10 +6576,10 @@
         <v>200</v>
       </c>
       <c r="E210" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F210" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6593,13 +6602,13 @@
         <v>201</v>
       </c>
       <c r="E211" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F211" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G211" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6622,7 +6631,7 @@
         <v>190</v>
       </c>
       <c r="G212" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H212">
         <v>200</v>
@@ -6642,13 +6651,13 @@
         <v>202</v>
       </c>
       <c r="E213" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F213" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G213" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6671,10 +6680,10 @@
         <v>203</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G214" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6697,10 +6706,10 @@
         <v>123</v>
       </c>
       <c r="E215" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F215" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6723,13 +6732,13 @@
         <v>204</v>
       </c>
       <c r="E216" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F216" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G216" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6752,10 +6761,10 @@
         <v>205</v>
       </c>
       <c r="E217" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G217" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6778,7 +6787,7 @@
         <v>206</v>
       </c>
       <c r="E218" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G218" t="s">
         <v>8</v>
@@ -6804,13 +6813,13 @@
         <v>207</v>
       </c>
       <c r="E219" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F219" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G219" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6833,13 +6842,13 @@
         <v>45</v>
       </c>
       <c r="E220" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F220" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G220" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6862,13 +6871,13 @@
         <v>208</v>
       </c>
       <c r="E221" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F221" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G221" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H221">
         <v>300</v>
@@ -6891,10 +6900,10 @@
         <v>209</v>
       </c>
       <c r="E222" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F222" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6917,10 +6926,10 @@
         <v>210</v>
       </c>
       <c r="E223" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F223" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6943,13 +6952,13 @@
         <v>211</v>
       </c>
       <c r="E224" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F224" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G224" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -7006,6 +7015,57 @@
         <v>214</v>
       </c>
       <c r="H227">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45334.58386574074</v>
+      </c>
+      <c r="D228" t="s">
+        <v>215</v>
+      </c>
+      <c r="H228">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45334.58386574074</v>
+      </c>
+      <c r="D229" t="s">
+        <v>216</v>
+      </c>
+      <c r="H229">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45334.58386574074</v>
+      </c>
+      <c r="D230" t="s">
+        <v>217</v>
+      </c>
+      <c r="H230">
         <v>200</v>
       </c>
     </row>
